--- a/code/content/TOPIC_XLSX/요일_3.xlsx
+++ b/code/content/TOPIC_XLSX/요일_3.xlsx
@@ -390,42 +390,42 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>144</v>
+        <v>176</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>136</v>
+        <v>163</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>129</v>
+        <v>157</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B5">
-        <v>122</v>
+        <v>154</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>118</v>
+        <v>132</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -433,7 +433,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>54</v>
+        <v>103</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -441,7 +441,7 @@
         <v>5</v>
       </c>
       <c r="B8">
-        <v>47</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
